--- a/data/case1/19/Qlm1_1.xlsx
+++ b/data/case1/19/Qlm1_1.xlsx
@@ -62,258 +62,258 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0">
-        <v>-0.090153303293185161</v>
+        <v>-0.10989254549611616</v>
       </c>
       <c r="B1" s="0">
-        <v>0.089817193336095613</v>
+        <v>0.10927061526663806</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>-0.067713868728879412</v>
+        <v>-0.10977651752371642</v>
       </c>
       <c r="B2" s="0">
-        <v>0.066385706164092007</v>
+        <v>0.10828946798977679</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>-0.016670757047620555</v>
+        <v>-0.058573684777384116</v>
       </c>
       <c r="B3" s="0">
-        <v>0.016295193098745386</v>
+        <v>0.05814255628773779</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>-0.0082951931592010197</v>
+        <v>-0.050142556402933636</v>
       </c>
       <c r="B4" s="0">
-        <v>0.0079576052282952503</v>
+        <v>0.049756872769643579</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>-0.053789128855433965</v>
+        <v>-0.04675687282628882</v>
       </c>
       <c r="B5" s="0">
-        <v>0.053124824657642122</v>
+        <v>0.045449513510352979</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>-0.0076348781965549506</v>
+        <v>-0.012989811738657764</v>
       </c>
       <c r="B6" s="0">
-        <v>0.0076305070181046375</v>
+        <v>0.012796032979709437</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>0.0023694929031692347</v>
+        <v>-0.0027960331283747308</v>
       </c>
       <c r="B7" s="0">
-        <v>-0.002380398826951069</v>
+        <v>0.0027614351856404262</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>0.01238039874853003</v>
+        <v>0.0072385646660020342</v>
       </c>
       <c r="B8" s="0">
-        <v>-0.01249493136951596</v>
+        <v>-0.0072774980671521661</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>-0.018379338467242601</v>
+        <v>0.0092774980213587988</v>
       </c>
       <c r="B9" s="0">
-        <v>0.018288544411859675</v>
+        <v>-0.0093036451320616109</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>-0.016288544434631902</v>
+        <v>0.011303645090297465</v>
       </c>
       <c r="B10" s="0">
-        <v>0.016284078896509513</v>
+        <v>-0.011303112097333923</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>-0.013284078926095511</v>
+        <v>0.014303112043469568</v>
       </c>
       <c r="B11" s="0">
-        <v>0.013276868366129513</v>
+        <v>-0.014304099590471964</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>-0.0097768683996490857</v>
+        <v>0.01780409953173967</v>
       </c>
       <c r="B12" s="0">
-        <v>0.0097305943806715867</v>
+        <v>-0.017830444956672409</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>-0.0062305944154381621</v>
+        <v>0.021330444905847123</v>
       </c>
       <c r="B13" s="0">
-        <v>0.0062162746008294079</v>
+        <v>-0.021351547836917284</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>0.00178372533293647</v>
+        <v>0.029351547733848626</v>
       </c>
       <c r="B14" s="0">
-        <v>-0.001784113759395467</v>
+        <v>-0.029387291137120464</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>-0.0080516279976938776</v>
+        <v>0.030387291124641003</v>
       </c>
       <c r="B15" s="0">
-        <v>0.0080336586456466463</v>
+        <v>-0.030434118036518854</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>-0.0060336586705038719</v>
+        <v>0.032434118016994695</v>
       </c>
       <c r="B16" s="0">
-        <v>0.0060032743135227662</v>
+        <v>-0.032630861951517431</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>-0.0040032743390883141</v>
+        <v>-0.0040029393653471246</v>
       </c>
       <c r="B17" s="0">
-        <v>0.0039999999602571279</v>
+        <v>0.0039999999668793862</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>-0.016103324649748174</v>
+        <v>0.0065059021816402662</v>
       </c>
       <c r="B18" s="0">
-        <v>0.016091365246772682</v>
+        <v>-0.0067290917203521872</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>-0.01209136527553456</v>
+        <v>0.0039176768863029565</v>
       </c>
       <c r="B19" s="0">
-        <v>0.012016421668429977</v>
+        <v>-0.0045074558928965835</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>-0.0080164216991640558</v>
+        <v>0.0050966581035787328</v>
       </c>
       <c r="B20" s="0">
-        <v>0.0080056414963731726</v>
+        <v>-0.0051776744325433555</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>-0.0040056415274429824</v>
+        <v>-0.0040056686080687243</v>
       </c>
       <c r="B21" s="0">
-        <v>0.0039999999686459731</v>
+        <v>0.0039999999494808591</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>-0.045714949148591089</v>
+        <v>-0.045715783274657085</v>
       </c>
       <c r="B22" s="0">
-        <v>0.045500907728662554</v>
+        <v>0.045501954189040461</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>-0.040500907769922101</v>
+        <v>-0.04050195426784331</v>
       </c>
       <c r="B23" s="0">
-        <v>0.040099358490838455</v>
+        <v>0.040099400145074959</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>-0.020099358640534248</v>
+        <v>-0.020099400416586199</v>
       </c>
       <c r="B24" s="0">
-        <v>0.019999999848264949</v>
+        <v>0.019999999724596762</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>-0.043489946484417175</v>
+        <v>-0.030459701823037477</v>
       </c>
       <c r="B25" s="0">
-        <v>0.043400314345639401</v>
+        <v>0.030405410166020275</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>-0.040900314373272906</v>
+        <v>-0.027905410224125404</v>
       </c>
       <c r="B26" s="0">
-        <v>0.040787208595299163</v>
+        <v>0.027837843297405129</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>-0.038287208624199209</v>
+        <v>-0.025337843356938894</v>
       </c>
       <c r="B27" s="0">
-        <v>0.037631874925871944</v>
+        <v>0.024949469040839389</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>-0.089004253182843662</v>
+        <v>-0.022949469099677877</v>
       </c>
       <c r="B28" s="0">
-        <v>0.088358708062354907</v>
+        <v>0.022703848216295341</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>-0.081358708135923052</v>
+        <v>-0.015703848340516302</v>
       </c>
       <c r="B29" s="0">
-        <v>0.081171758407637462</v>
+        <v>0.015645633172836071</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>-0.021171758854902301</v>
+        <v>0.044354366046847726</v>
       </c>
       <c r="B30" s="0">
-        <v>0.021022925530772785</v>
+        <v>-0.04456960870572102</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>-0.014022925611758552</v>
+        <v>0.051569608591027105</v>
       </c>
       <c r="B31" s="0">
-        <v>0.014001060307570867</v>
+        <v>-0.051643670924033103</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>-0.0040010604099158797</v>
+        <v>-0.0040008195577776462</v>
       </c>
       <c r="B32" s="0">
-        <v>0.0039999999393227625</v>
+        <v>0.003999999925984099</v>
       </c>
     </row>
   </sheetData>
